--- a/PLDI-2012/raw_data/fuzz2/fuzzed/fanniemae_fuzzed_32.xlsx
+++ b/PLDI-2012/raw_data/fuzz2/fuzzed/fanniemae_fuzzed_32.xlsx
@@ -1220,7 +1220,7 @@
         <v>332114255.61000007</v>
       </c>
       <c r="F13" s="1">
-        <v>325268233.60000002</v>
+        <v>325268233</v>
       </c>
       <c r="G13" s="1">
         <v>319819483.18000001</v>
@@ -1256,7 +1256,7 @@
         <v>537985.22000000253</v>
       </c>
       <c r="F14" s="1">
-        <v>44875817.619999997</v>
+        <v>644875817</v>
       </c>
       <c r="G14" s="1">
         <v>34063116.800000042</v>
@@ -1292,7 +1292,7 @@
         <v>30000000</v>
       </c>
       <c r="F15" s="1">
-        <v>35000000</v>
+        <v>6235000000</v>
       </c>
       <c r="G15" s="1">
         <v>40000000</v>
@@ -1328,7 +1328,7 @@
         <v>-60473972.810000002</v>
       </c>
       <c r="F16" s="1">
-        <v>53616441.740000002</v>
+        <v>53616441</v>
       </c>
       <c r="G16" s="1">
         <v>-60834434.380000003</v>
@@ -1403,7 +1403,8 @@
         <v>1447134855.7700002</v>
       </c>
       <c r="F18" s="1">
-        <v>1451068426</v>
+        <f>SUM(F12:F17)</f>
+        <v>8358301308.0500002</v>
       </c>
       <c r="G18" s="1">
         <f>SUM(G12:G17)</f>
@@ -1517,7 +1518,8 @@
         <v>1062434855.7700001</v>
       </c>
       <c r="F21" s="33">
-        <v>1038368426</v>
+        <f>SUM(F18:F20)</f>
+        <v>8771001308.0499992</v>
       </c>
       <c r="G21" s="33">
         <f>SUM(G18:G20)</f>
@@ -1596,7 +1598,7 @@
       </c>
       <c r="F23" s="33">
         <f>SUM(F21:F22)</f>
-        <v>1058384051</v>
+        <v>8791016933.0499992</v>
       </c>
       <c r="G23" s="33">
         <f>SUM(G21:G22)</f>
@@ -1644,7 +1646,7 @@
       </c>
       <c r="F25" s="5">
         <f>F23/F26</f>
-        <v>1.0308566176978531</v>
+        <v>8.5623720171955586</v>
       </c>
       <c r="G25" s="5">
         <f>G23/G26</f>
@@ -1735,11 +1737,11 @@
       </c>
       <c r="F28" s="16">
         <f>(F25-E25)/E25</f>
-        <v>7.3148474165124627E-3</v>
+        <v>7.3668323159106626</v>
       </c>
       <c r="G28" s="16">
         <f>(G25-F25)/F25</f>
-        <v>-8.4812004554874712E-2</v>
+        <v>-0.88981702737891066</v>
       </c>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
@@ -1763,7 +1765,7 @@
       </c>
       <c r="C29" s="5">
         <f>SUM(C25:G25)/5</f>
-        <v>1.0277797057131872</v>
+        <v>2.5340827856127284</v>
       </c>
       <c r="E29" s="13"/>
       <c r="F29" s="12"/>
